--- a/doc/自由陣サイト再構築.xlsx
+++ b/doc/自由陣サイト再構築.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\FreedomMatrix\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="100" windowWidth="24860" windowHeight="15320" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="2580" yWindow="96" windowWidth="24864" windowHeight="15324" tabRatio="500" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="サイトマップ" sheetId="5" r:id="rId1"/>
@@ -38,14 +43,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 TOPページとリンク</t>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 案件検索ページへリンク
@@ -79,14 +84,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 「フリーランスをご検討中の方へ」と「案件探しの企業チームへ」は同じページ(仕事を受注するフリーランス・パートナーへ)へリンク</t>
@@ -104,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 イメージは左図
@@ -120,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,21 +133,21 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 最新5案件まで表示、案件新着時自動更新</t>
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 案件の詳細ページへ
@@ -152,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H74" authorId="0">
+    <comment ref="H74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件検索ぺーじへリンク</t>
@@ -177,14 +182,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 協力パートナー会員登録ページへリンク</t>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 会員登録ページへリンク</t>
@@ -228,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="0">
+    <comment ref="O31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +241,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 お問い合わせページへリンク</t>
@@ -264,14 +269,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="V54" authorId="0">
+    <comment ref="V54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">デフォルト文字：
 </t>
@@ -282,7 +287,7 @@
             <sz val="12"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>プロジェクト内容：XXXX向けたXXXXXXX構築/開発
 概要：
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D91" authorId="0">
+    <comment ref="D91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +309,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 このバダンを押すと、これまでの情報をDBへ送信
@@ -319,7 +324,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 「自動メッセージ」
@@ -351,7 +356,7 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +364,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 ロゴのみ、リンクしない
@@ -378,14 +383,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件名をクリックすると、案件内容を以下の「案件詳細」で表示する</t>
@@ -403,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0">
+    <comment ref="G32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +416,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 選択肢の自動反映。
@@ -425,14 +430,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G55" authorId="0">
+    <comment ref="G55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 「辞退」を押すと、メッセージボックスから自動メッセージ
@@ -444,7 +449,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>From 会員　to 案件
 「メッセージ内容：XX様がXX（案件名）を辞退致しました。理由：XXXXXXX」</t>
@@ -454,7 +459,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ↓同時に
@@ -462,28 +467,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件名をクリックすると、ログインしている状態で、「案件詳細」へ遷移し、「案件詳細」の画面で応募を行う。</t>
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 ・メッセージやりとり一覧（Top10）を表示
@@ -515,14 +520,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 「検索条件を追加」
@@ -543,14 +548,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 ・10案件を表示
@@ -570,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0">
+    <comment ref="I33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +583,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 こちらの「気に入る」を押すと、会員Myページで「気に入る一覧」で保存、表示
@@ -597,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0">
+    <comment ref="O33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +610,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 こちらの「応募する」を押すと、案件/会員Myページでメッセージボックスで自動メッセージ送信
@@ -618,7 +623,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>From会員 to 案件
 　「メッセージ内容：XXXXXX案件に応募がありましたので、ご確認ください。」</t>
@@ -629,7 +634,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 それ以降のメッセージは双方でやりとり。
@@ -649,14 +654,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件登録ページの内容と一致
@@ -675,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +688,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 こちらの「気に入る」を押すと、会員Myページで「気に入る一覧」で保存、表示</t>
@@ -701,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="0">
+    <comment ref="M28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +714,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 こちらの「応募する」を押すと、案件/会員Myページでメッセージボックスで自動メッセージ送信
@@ -722,7 +727,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>From会員 to 案件
 　「メッセージ内容：XXXXXX案件に応募がありましたので、ご確認ください。」</t>
@@ -733,7 +738,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 それ以降のメッセージは双方でやりとり。
@@ -753,14 +758,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件登録ページへリンク</t>
@@ -778,14 +783,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 「運営会社」という文字に該当ページへリンク</t>
@@ -803,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +816,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件登録ページへリンク</t>
@@ -829,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0">
+    <comment ref="O32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -837,7 +842,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 お問い合わせページへリンク</t>
@@ -865,14 +870,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="N35" authorId="0">
+    <comment ref="N35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 このバダンを押すと、これまでの情報をDBへ送信
@@ -886,14 +891,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="U60" authorId="0">
+    <comment ref="U60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 「+」ボダンをクリックすると、案件個別の部分が追加できるようにする
@@ -902,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F98" authorId="0">
+    <comment ref="F98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +915,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 このバダンを押すと、これまでの情報をDBへ送信
@@ -925,7 +930,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 「自動メッセージ」
@@ -957,7 +962,7 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -965,7 +970,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 ロゴのみ、リンクしない
@@ -984,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +997,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 「案件登録ページ」へリンク
@@ -1000,14 +1005,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件名をクリックすると、案件内容を以下の「公募案件詳細」で表示し、編集可能へ</t>
@@ -1025,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0">
+    <comment ref="G24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1038,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 「募集中」・・・自動選択（進捗が「応募待ち」「辞退」「見送り」の場合）
@@ -1046,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K24" authorId="0">
+    <comment ref="K24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1059,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 選択肢の自動反映。
@@ -1069,14 +1074,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="0">
+    <comment ref="G59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 「見送り」を押すと、メッセージボックスから自動メッセージ
@@ -1088,7 +1093,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>From 案件　to 会員
 「メッセージ内容：XX（案件名）から見送りがありました。理由：XXXXXXX」</t>
@@ -1098,7 +1103,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ↓同時に
@@ -1106,14 +1111,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G63" authorId="0">
+    <comment ref="G63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 「成約」を押すと、メッセージボックスから自動メッセージ
@@ -1125,7 +1130,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>From 案件　to 会員
 「メッセージ内容：XX（案件名）から案件成立のご連絡がありました。おめでとうございます。今後の段取りについては、企業様と直接ご連絡するようにお願い致します。」</t>
@@ -1135,7 +1140,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ↓同時に
@@ -1143,14 +1148,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 ・メッセージやりとり一覧（Top10）を表示
@@ -1182,14 +1187,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 会員登録ページへリンク</t>
@@ -1207,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1220,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 会員登録ページへリンク</t>
@@ -1233,7 +1238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="0">
+    <comment ref="O31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1246,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 お問い合わせページへリンク</t>
@@ -1269,14 +1274,14 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="D34" authorId="0">
+    <comment ref="D34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 このバダンを押すと、次のステップへ
@@ -1284,14 +1289,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L34" authorId="0">
+    <comment ref="L34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 このバダンを押すと、これまでの情報をDBへ送信
@@ -1305,7 +1310,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>「自動メッセージ」
 お世話になっております。自由陣の運営チームです。
@@ -1319,21 +1324,21 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="T55" authorId="0">
+    <comment ref="T55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">デフォルト文字：
 </t>
@@ -1344,7 +1349,7 @@
             <sz val="12"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>プロジェクト内容：XXXX向けたXXXXXXX構築/開発
 概要：
@@ -1357,7 +1362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="0">
+    <comment ref="D87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1365,7 +1370,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 このバダンを押すと、これまでの情報をDBへ送信
@@ -1380,7 +1385,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 「自動メッセージ」
@@ -1412,7 +1417,7 @@
     <author>Luo Ting</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1425,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 ロゴのみ、リンクしない
@@ -1439,14 +1444,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件名をクリックすると、案件内容を以下の「案件詳細」で表示する</t>
@@ -1464,7 +1469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1477,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 選択肢の自動反映。
@@ -1486,14 +1491,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0">
+    <comment ref="G51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 「辞退」を押すと、メッセージボックスから自動メッセージ
@@ -1505,7 +1510,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>From 会員　to 案件
 「メッセージ内容：XX様がXX（案件名）を辞退致しました。理由：XXXXXXX」</t>
@@ -1515,7 +1520,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ↓同時に
@@ -1523,28 +1528,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0">
+    <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t>仕様：
 案件名をクリックすると、ログインしている状態で、「案件詳細」へ遷移し、「案件詳細」の画面で応募を行う。</t>
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">仕様：
 ・メッセージやりとり一覧（Top10）を表示
@@ -1571,7 +1576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="447">
   <si>
     <t>http://jiyujin-freelance.com/jiyujin/</t>
   </si>
@@ -4028,6 +4033,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>URL</t>
     </r>
@@ -4041,6 +4047,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -4059,6 +4066,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>20-4-1201</t>
     </r>
@@ -4072,6 +4080,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>9</t>
     </r>
@@ -4090,6 +4099,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>5</t>
     </r>
@@ -4113,6 +4123,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -4136,6 +4147,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -5021,7 +5033,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5817,23 +5829,31 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メインスキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5842,7 +5862,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5851,7 +5871,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5859,7 +5879,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5867,7 +5887,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5875,8 +5895,8 @@
     <font>
       <sz val="12"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5889,8 +5909,8 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5898,34 +5918,34 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5943,8 +5963,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5958,12 +5978,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5972,14 +5993,14 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5987,18 +6008,19 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6780,7 +6802,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6789,13 +6815,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6906,18 +6929,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6939,10 +6950,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7005,375 +7028,382 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="363">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7427,14 +7457,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7444,7 +7474,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -7512,14 +7542,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7529,7 +7559,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -7597,14 +7627,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7614,7 +7644,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -7677,14 +7707,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7694,7 +7724,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -7762,14 +7792,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7779,7 +7809,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -7847,14 +7877,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7864,7 +7894,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -7927,14 +7957,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7944,7 +7974,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -8164,14 +8194,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8181,7 +8211,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -8249,14 +8279,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8266,7 +8296,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -8329,14 +8359,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8346,7 +8376,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -8692,12 +8722,12 @@
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="16" customWidth="1"/>
-    <col min="33" max="61" width="4.6640625" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="12.83203125" style="1"/>
+    <col min="1" max="31" width="4.69921875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="16" customWidth="1"/>
+    <col min="33" max="61" width="4.69921875" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="12.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
@@ -8709,32 +8739,32 @@
       </c>
     </row>
     <row r="2" spans="2:22">
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="73"/>
-      <c r="L2" s="72" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="L2" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="F3" s="74"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="77"/>
       <c r="H3" s="77"/>
       <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-      <c r="L3" s="74"/>
+      <c r="J3" s="78"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="77"/>
       <c r="N3" s="77"/>
       <c r="O3" s="77"/>
-      <c r="P3" s="75"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="5" spans="2:22">
       <c r="F5" s="1">
@@ -8751,52 +8781,52 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="L6" s="72" t="s">
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="L6" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="73"/>
-      <c r="R6" s="72" t="s">
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+      <c r="R6" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="73"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="75"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="L7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="77"/>
       <c r="N7" s="77"/>
       <c r="O7" s="77"/>
-      <c r="P7" s="75"/>
-      <c r="R7" s="74"/>
+      <c r="P7" s="78"/>
+      <c r="R7" s="76"/>
       <c r="S7" s="77"/>
       <c r="T7" s="77"/>
       <c r="U7" s="77"/>
-      <c r="V7" s="75"/>
+      <c r="V7" s="78"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
     </row>
     <row r="9" spans="2:22">
       <c r="F9" s="1">
@@ -8810,44 +8840,44 @@
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="L10" s="72" t="s">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="L10" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="73"/>
-      <c r="R10" s="72" t="s">
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="R10" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
-      <c r="L11" s="74"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="77"/>
       <c r="N11" s="77"/>
       <c r="O11" s="77"/>
-      <c r="P11" s="75"/>
-      <c r="R11" s="74"/>
+      <c r="P11" s="78"/>
+      <c r="R11" s="76"/>
       <c r="S11" s="77"/>
       <c r="T11" s="77"/>
       <c r="U11" s="77"/>
-      <c r="V11" s="75"/>
+      <c r="V11" s="78"/>
     </row>
     <row r="13" spans="2:22">
       <c r="F13" s="1">
@@ -8861,44 +8891,44 @@
       </c>
     </row>
     <row r="14" spans="2:22">
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
-      <c r="L14" s="72" t="s">
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="L14" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="73"/>
-      <c r="R14" s="78" t="s">
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
+      <c r="R14" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="81"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
-      <c r="L15" s="74"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="L15" s="76"/>
       <c r="M15" s="77"/>
       <c r="N15" s="77"/>
       <c r="O15" s="77"/>
-      <c r="P15" s="75"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="83"/>
+      <c r="P15" s="78"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="84"/>
     </row>
     <row r="17" spans="6:12">
       <c r="F17" s="1">
@@ -8906,20 +8936,20 @@
       </c>
     </row>
     <row r="18" spans="6:12">
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
     </row>
     <row r="19" spans="6:12">
-      <c r="F19" s="74"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
       <c r="I19" s="77"/>
-      <c r="J19" s="75"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="21" spans="6:12">
       <c r="F21" s="1">
@@ -8927,20 +8957,20 @@
       </c>
     </row>
     <row r="22" spans="6:12">
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="6:12">
-      <c r="F23" s="74"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
-      <c r="J23" s="75"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="25" spans="6:12">
       <c r="F25" s="1">
@@ -8948,23 +8978,23 @@
       </c>
     </row>
     <row r="26" spans="6:12">
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
       <c r="L26" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="27" spans="6:12">
-      <c r="F27" s="74"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
-      <c r="J27" s="75"/>
+      <c r="J27" s="78"/>
       <c r="L27" s="1" t="s">
         <v>256</v>
       </c>
@@ -8975,45 +9005,45 @@
       </c>
     </row>
     <row r="30" spans="6:12">
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
       <c r="L30" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="74"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="77"/>
       <c r="H31" s="77"/>
       <c r="I31" s="77"/>
-      <c r="J31" s="75"/>
+      <c r="J31" s="78"/>
       <c r="L31" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="6:12">
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="73"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
       <c r="L34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="6:12">
-      <c r="F35" s="74"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
       <c r="I35" s="77"/>
-      <c r="J35" s="75"/>
+      <c r="J35" s="78"/>
       <c r="L35" s="1" t="s">
         <v>54</v>
       </c>
@@ -9025,11 +9055,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R10:V11"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="L2:P3"/>
-    <mergeCell ref="R14:V15"/>
     <mergeCell ref="F34:J35"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="F18:J19"/>
@@ -9041,6 +9066,11 @@
     <mergeCell ref="F30:J31"/>
     <mergeCell ref="F14:J15"/>
     <mergeCell ref="L14:P15"/>
+    <mergeCell ref="R10:V11"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="L2:P3"/>
+    <mergeCell ref="R14:V15"/>
     <mergeCell ref="R6:V7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -9062,12 +9092,12 @@
       <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9079,40 +9109,40 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="F3" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="73"/>
-      <c r="K3" s="78" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="K3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="P3" s="72" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="P3" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="74"/>
+      <c r="D4" s="78"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="77"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="P4" s="74"/>
+      <c r="H4" s="78"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="P4" s="76"/>
       <c r="Q4" s="77"/>
-      <c r="R4" s="75"/>
+      <c r="R4" s="78"/>
     </row>
     <row r="5" spans="1:20">
       <c r="G5" s="57"/>
@@ -9132,13 +9162,13 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="31" t="s">
         <v>146</v>
       </c>
@@ -9157,13 +9187,13 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="31" t="s">
         <v>146</v>
       </c>
@@ -9182,13 +9212,13 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="31" t="s">
         <v>146</v>
       </c>
@@ -9207,13 +9237,13 @@
       <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="31" t="s">
         <v>146</v>
       </c>
@@ -9232,13 +9262,13 @@
       <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="31" t="s">
         <v>146</v>
       </c>
@@ -9257,13 +9287,13 @@
       <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="31" t="s">
         <v>146</v>
       </c>
@@ -9282,13 +9312,13 @@
       <c r="T16" s="33"/>
     </row>
     <row r="17" spans="2:30">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="31" t="s">
         <v>146</v>
       </c>
@@ -9307,13 +9337,13 @@
       <c r="T17" s="33"/>
     </row>
     <row r="18" spans="2:30">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="31" t="s">
         <v>146</v>
       </c>
@@ -9332,13 +9362,13 @@
       <c r="T18" s="33"/>
     </row>
     <row r="19" spans="2:30">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="31" t="s">
         <v>146</v>
       </c>
@@ -9357,13 +9387,13 @@
       <c r="T19" s="33"/>
     </row>
     <row r="20" spans="2:30">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="31" t="s">
         <v>146</v>
       </c>
@@ -9382,13 +9412,13 @@
       <c r="T20" s="33"/>
     </row>
     <row r="21" spans="2:30">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="31" t="s">
         <v>146</v>
       </c>
@@ -9407,11 +9437,11 @@
       <c r="T21" s="33"/>
     </row>
     <row r="23" spans="2:30">
-      <c r="R23" s="102" t="s">
+      <c r="R23" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="S23" s="103"/>
-      <c r="T23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="105"/>
     </row>
     <row r="24" spans="2:30">
       <c r="B24" s="24"/>
@@ -9450,23 +9480,23 @@
       </c>
     </row>
     <row r="28" spans="2:30">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="102" t="s">
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="105"/>
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="28" t="s">
@@ -9973,18 +10003,18 @@
       <c r="X50" s="21"/>
     </row>
     <row r="51" spans="2:30">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="102" t="s">
+      <c r="G51" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="H51" s="103"/>
-      <c r="I51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="105"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22" t="s">
         <v>250</v>
@@ -10090,33 +10120,33 @@
       </c>
     </row>
     <row r="58" spans="2:30">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="126" t="s">
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="125" t="s">
         <v>368</v>
       </c>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126" t="s">
+      <c r="H58" s="125"/>
+      <c r="I58" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126" t="s">
+      <c r="J58" s="125"/>
+      <c r="K58" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="L58" s="126"/>
-      <c r="M58" s="122" t="s">
+      <c r="L58" s="125"/>
+      <c r="M58" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="N58" s="139"/>
-      <c r="O58" s="122" t="s">
+      <c r="N58" s="140"/>
+      <c r="O58" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="P58" s="139"/>
+      <c r="P58" s="140"/>
       <c r="Q58" s="34" t="s">
         <v>373</v>
       </c>
@@ -10270,35 +10300,35 @@
       </c>
     </row>
     <row r="70" spans="2:30">
-      <c r="B70" s="114" t="s">
+      <c r="B70" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="102" t="s">
+      <c r="C70" s="123"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="104"/>
-      <c r="K70" s="103" t="s">
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
-      <c r="R70" s="103"/>
-      <c r="S70" s="103"/>
-      <c r="T70" s="103"/>
-      <c r="U70" s="103"/>
-      <c r="V70" s="103"/>
-      <c r="W70" s="103"/>
-      <c r="X70" s="104"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="104"/>
+      <c r="R70" s="104"/>
+      <c r="S70" s="104"/>
+      <c r="T70" s="104"/>
+      <c r="U70" s="104"/>
+      <c r="V70" s="104"/>
+      <c r="W70" s="104"/>
+      <c r="X70" s="105"/>
     </row>
     <row r="71" spans="2:30">
       <c r="B71" s="28" t="s">
@@ -10425,12 +10455,12 @@
       <c r="X74" s="25"/>
     </row>
     <row r="76" spans="2:30">
-      <c r="U76" s="102" t="s">
+      <c r="U76" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="V76" s="103"/>
-      <c r="W76" s="103"/>
-      <c r="X76" s="104"/>
+      <c r="V76" s="104"/>
+      <c r="W76" s="104"/>
+      <c r="X76" s="105"/>
     </row>
     <row r="78" spans="2:30">
       <c r="B78" s="34" t="s">
@@ -10439,6 +10469,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="K70:X70"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="P3:R4"/>
@@ -10455,20 +10499,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="K70:X70"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10491,12 +10521,12 @@
       <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -10542,83 +10572,83 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="133" t="s">
+      <c r="Q3" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="140" t="s">
+      <c r="V3" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="143"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="138"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="139"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="146"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="20">
+    <row r="6" spans="1:31" ht="17.399999999999999">
       <c r="B6" s="26" t="s">
         <v>59</v>
       </c>
@@ -10639,7 +10669,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="20">
+    <row r="11" spans="1:31" ht="17.399999999999999">
       <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
@@ -10673,11 +10703,11 @@
       </c>
     </row>
     <row r="18" spans="2:25">
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="17" t="s">
@@ -10721,59 +10751,59 @@
       </c>
     </row>
     <row r="31" spans="2:25">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="73"/>
-      <c r="O31" s="72" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="75"/>
+      <c r="O31" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="75"/>
     </row>
     <row r="32" spans="2:25">
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="113"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="114"/>
     </row>
     <row r="33" spans="2:30">
-      <c r="B33" s="74"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
@@ -10783,8 +10813,8 @@
       <c r="I33" s="77"/>
       <c r="J33" s="77"/>
       <c r="K33" s="77"/>
-      <c r="L33" s="75"/>
-      <c r="O33" s="74"/>
+      <c r="L33" s="78"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="77"/>
       <c r="Q33" s="77"/>
       <c r="R33" s="77"/>
@@ -10794,7 +10824,7 @@
       <c r="V33" s="77"/>
       <c r="W33" s="77"/>
       <c r="X33" s="77"/>
-      <c r="Y33" s="75"/>
+      <c r="Y33" s="78"/>
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="10"/>
@@ -11150,12 +11180,12 @@
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -11201,80 +11231,80 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
     <row r="7" spans="1:31">
@@ -11283,13 +11313,13 @@
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -11305,13 +11335,13 @@
       </c>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -11372,13 +11402,13 @@
       </c>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -11395,13 +11425,13 @@
       <c r="T19" s="33"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -11419,13 +11449,13 @@
       <c r="U20" s="34"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
@@ -11443,13 +11473,13 @@
       <c r="U21" s="34"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
@@ -11467,13 +11497,13 @@
       <c r="U22" s="34"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
@@ -11490,13 +11520,13 @@
       <c r="T23" s="33"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -11513,13 +11543,13 @@
       <c r="T24" s="33"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -11536,13 +11566,13 @@
       <c r="T25" s="33"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
@@ -11559,13 +11589,13 @@
       <c r="T26" s="33"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
@@ -11582,13 +11612,13 @@
       <c r="T27" s="33"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>415</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="31"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -11605,13 +11635,13 @@
       <c r="T28" s="33"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="103" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -11628,13 +11658,13 @@
       <c r="T29" s="33"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="103" t="s">
         <v>418</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="41" t="s">
         <v>419</v>
       </c>
@@ -11653,13 +11683,13 @@
       <c r="T30" s="33"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="103" t="s">
         <v>421</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="41" t="s">
         <v>419</v>
       </c>
@@ -11689,13 +11719,13 @@
       </c>
     </row>
     <row r="36" spans="2:23">
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="103" t="s">
         <v>437</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="41" t="s">
         <v>303</v>
       </c>
@@ -11714,13 +11744,13 @@
       <c r="T36" s="33"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="103" t="s">
         <v>438</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="41" t="s">
         <v>439</v>
       </c>
@@ -11739,13 +11769,13 @@
       <c r="T37" s="33"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="41" t="s">
         <v>440</v>
       </c>
@@ -11840,13 +11870,13 @@
       </c>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="122" t="s">
+      <c r="B67" s="119" t="s">
         <v>429</v>
       </c>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
       <c r="G67" s="31" t="s">
         <v>436</v>
       </c>
@@ -11863,21 +11893,21 @@
       <c r="R67" s="32"/>
       <c r="S67" s="32"/>
       <c r="T67" s="33"/>
-      <c r="U67" s="147"/>
-      <c r="V67" s="147"/>
-      <c r="W67" s="147"/>
-      <c r="X67" s="147"/>
-      <c r="Y67" s="147"/>
-      <c r="Z67" s="147"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+      <c r="Y67" s="72"/>
+      <c r="Z67" s="72"/>
     </row>
     <row r="68" spans="2:26">
-      <c r="B68" s="122" t="s">
+      <c r="B68" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
       <c r="G68" s="31" t="s">
         <v>436</v>
       </c>
@@ -11894,21 +11924,21 @@
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
       <c r="T68" s="33"/>
-      <c r="U68" s="147"/>
-      <c r="V68" s="147"/>
-      <c r="W68" s="147"/>
-      <c r="X68" s="147"/>
-      <c r="Y68" s="147"/>
-      <c r="Z68" s="147"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="72"/>
+      <c r="W68" s="72"/>
+      <c r="X68" s="72"/>
+      <c r="Y68" s="72"/>
+      <c r="Z68" s="72"/>
     </row>
     <row r="69" spans="2:26">
-      <c r="B69" s="122" t="s">
+      <c r="B69" s="119" t="s">
         <v>431</v>
       </c>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
       <c r="G69" s="31" t="s">
         <v>436</v>
       </c>
@@ -11925,21 +11955,21 @@
       <c r="R69" s="32"/>
       <c r="S69" s="32"/>
       <c r="T69" s="33"/>
-      <c r="U69" s="147"/>
-      <c r="V69" s="147"/>
-      <c r="W69" s="147"/>
-      <c r="X69" s="147"/>
-      <c r="Y69" s="147"/>
-      <c r="Z69" s="147"/>
+      <c r="U69" s="72"/>
+      <c r="V69" s="72"/>
+      <c r="W69" s="72"/>
+      <c r="X69" s="72"/>
+      <c r="Y69" s="72"/>
+      <c r="Z69" s="72"/>
     </row>
     <row r="70" spans="2:26">
-      <c r="B70" s="122" t="s">
+      <c r="B70" s="119" t="s">
         <v>432</v>
       </c>
-      <c r="C70" s="123"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="123"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="120"/>
       <c r="G70" s="31" t="s">
         <v>436</v>
       </c>
@@ -11956,21 +11986,21 @@
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
       <c r="T70" s="33"/>
-      <c r="U70" s="147"/>
-      <c r="V70" s="147"/>
-      <c r="W70" s="147"/>
-      <c r="X70" s="147"/>
-      <c r="Y70" s="147"/>
-      <c r="Z70" s="147"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+      <c r="W70" s="72"/>
+      <c r="X70" s="72"/>
+      <c r="Y70" s="72"/>
+      <c r="Z70" s="72"/>
     </row>
     <row r="71" spans="2:26">
-      <c r="B71" s="122" t="s">
+      <c r="B71" s="119" t="s">
         <v>433</v>
       </c>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
       <c r="G71" s="31" t="s">
         <v>436</v>
       </c>
@@ -11987,21 +12017,21 @@
       <c r="R71" s="32"/>
       <c r="S71" s="32"/>
       <c r="T71" s="33"/>
-      <c r="U71" s="147"/>
-      <c r="V71" s="147"/>
-      <c r="W71" s="147"/>
-      <c r="X71" s="147"/>
-      <c r="Y71" s="147"/>
-      <c r="Z71" s="147"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="72"/>
+      <c r="Y71" s="72"/>
+      <c r="Z71" s="72"/>
     </row>
     <row r="72" spans="2:26">
-      <c r="B72" s="122" t="s">
+      <c r="B72" s="119" t="s">
         <v>434</v>
       </c>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
       <c r="G72" s="31" t="s">
         <v>436</v>
       </c>
@@ -12018,21 +12048,21 @@
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
       <c r="T72" s="33"/>
-      <c r="U72" s="147"/>
-      <c r="V72" s="147"/>
-      <c r="W72" s="147"/>
-      <c r="X72" s="147"/>
-      <c r="Y72" s="147"/>
-      <c r="Z72" s="147"/>
+      <c r="U72" s="72"/>
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="72"/>
+      <c r="Y72" s="72"/>
+      <c r="Z72" s="72"/>
     </row>
     <row r="73" spans="2:26">
-      <c r="B73" s="122" t="s">
+      <c r="B73" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
       <c r="G73" s="31" t="s">
         <v>436</v>
       </c>
@@ -12049,21 +12079,21 @@
       <c r="R73" s="32"/>
       <c r="S73" s="32"/>
       <c r="T73" s="33"/>
-      <c r="U73" s="147"/>
-      <c r="V73" s="147"/>
-      <c r="W73" s="147"/>
-      <c r="X73" s="147"/>
-      <c r="Y73" s="147"/>
-      <c r="Z73" s="147"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
     </row>
     <row r="74" spans="2:26">
-      <c r="B74" s="122" t="s">
+      <c r="B74" s="119" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="120"/>
       <c r="G74" s="31" t="s">
         <v>436</v>
       </c>
@@ -12080,21 +12110,21 @@
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
       <c r="T74" s="33"/>
-      <c r="U74" s="147"/>
-      <c r="V74" s="147"/>
-      <c r="W74" s="147"/>
-      <c r="X74" s="147"/>
-      <c r="Y74" s="147"/>
-      <c r="Z74" s="147"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="72"/>
+      <c r="Y74" s="72"/>
+      <c r="Z74" s="72"/>
     </row>
     <row r="75" spans="2:26">
-      <c r="B75" s="122" t="s">
+      <c r="B75" s="119" t="s">
         <v>413</v>
       </c>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="123"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="120"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="120"/>
       <c r="G75" s="31" t="s">
         <v>436</v>
       </c>
@@ -12111,21 +12141,21 @@
       <c r="R75" s="32"/>
       <c r="S75" s="32"/>
       <c r="T75" s="33"/>
-      <c r="U75" s="147"/>
-      <c r="V75" s="147"/>
-      <c r="W75" s="147"/>
-      <c r="X75" s="147"/>
-      <c r="Y75" s="147"/>
-      <c r="Z75" s="147"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="72"/>
+      <c r="Y75" s="72"/>
+      <c r="Z75" s="72"/>
     </row>
     <row r="76" spans="2:26">
-      <c r="B76" s="122" t="s">
+      <c r="B76" s="119" t="s">
         <v>414</v>
       </c>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="120"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="120"/>
       <c r="G76" s="31" t="s">
         <v>436</v>
       </c>
@@ -12142,21 +12172,21 @@
       <c r="R76" s="32"/>
       <c r="S76" s="32"/>
       <c r="T76" s="33"/>
-      <c r="U76" s="147"/>
-      <c r="V76" s="147"/>
-      <c r="W76" s="147"/>
-      <c r="X76" s="147"/>
-      <c r="Y76" s="147"/>
-      <c r="Z76" s="147"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="72"/>
+      <c r="Y76" s="72"/>
+      <c r="Z76" s="72"/>
     </row>
     <row r="77" spans="2:26">
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="119" t="s">
         <v>416</v>
       </c>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="123"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="120"/>
       <c r="G77" s="31" t="s">
         <v>436</v>
       </c>
@@ -12173,21 +12203,21 @@
       <c r="R77" s="32"/>
       <c r="S77" s="32"/>
       <c r="T77" s="33"/>
-      <c r="U77" s="147"/>
-      <c r="V77" s="147"/>
-      <c r="W77" s="147"/>
-      <c r="X77" s="147"/>
-      <c r="Y77" s="147"/>
-      <c r="Z77" s="147"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72"/>
+      <c r="W77" s="72"/>
+      <c r="X77" s="72"/>
+      <c r="Y77" s="72"/>
+      <c r="Z77" s="72"/>
     </row>
     <row r="78" spans="2:26">
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="119" t="s">
         <v>417</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
       <c r="G78" s="31" t="s">
         <v>436</v>
       </c>
@@ -12204,21 +12234,21 @@
       <c r="R78" s="32"/>
       <c r="S78" s="32"/>
       <c r="T78" s="33"/>
-      <c r="U78" s="147"/>
-      <c r="V78" s="147"/>
-      <c r="W78" s="147"/>
-      <c r="X78" s="147"/>
-      <c r="Y78" s="147"/>
-      <c r="Z78" s="147"/>
+      <c r="U78" s="72"/>
+      <c r="V78" s="72"/>
+      <c r="W78" s="72"/>
+      <c r="X78" s="72"/>
+      <c r="Y78" s="72"/>
+      <c r="Z78" s="72"/>
     </row>
     <row r="79" spans="2:26">
-      <c r="B79" s="122" t="s">
+      <c r="B79" s="119" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="123"/>
-      <c r="D79" s="123"/>
-      <c r="E79" s="123"/>
-      <c r="F79" s="123"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="120"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
       <c r="G79" s="31" t="s">
         <v>436</v>
       </c>
@@ -12237,11 +12267,11 @@
       <c r="T79" s="33"/>
     </row>
     <row r="80" spans="2:26">
-      <c r="B80" s="146"/>
-      <c r="C80" s="146"/>
-      <c r="D80" s="146"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="146"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="147"/>
+      <c r="F80" s="147"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -12258,11 +12288,11 @@
       <c r="T80" s="22"/>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="146"/>
-      <c r="C81" s="146"/>
-      <c r="D81" s="146"/>
-      <c r="E81" s="146"/>
-      <c r="F81" s="146"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="147"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -12279,11 +12309,11 @@
       <c r="T81" s="22"/>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="146"/>
-      <c r="C82" s="146"/>
-      <c r="D82" s="146"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="146"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="147"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -12300,11 +12330,11 @@
       <c r="T82" s="22"/>
     </row>
     <row r="83" spans="2:30">
-      <c r="B83" s="146"/>
-      <c r="C83" s="146"/>
-      <c r="D83" s="146"/>
-      <c r="E83" s="146"/>
-      <c r="F83" s="146"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="147"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -12321,11 +12351,11 @@
       <c r="T83" s="22"/>
     </row>
     <row r="84" spans="2:30">
-      <c r="B84" s="146"/>
-      <c r="C84" s="146"/>
-      <c r="D84" s="146"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="146"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="147"/>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -12342,11 +12372,11 @@
       <c r="T84" s="22"/>
     </row>
     <row r="85" spans="2:30">
-      <c r="B85" s="146"/>
-      <c r="C85" s="146"/>
-      <c r="D85" s="146"/>
-      <c r="E85" s="146"/>
-      <c r="F85" s="146"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -12363,11 +12393,11 @@
       <c r="T85" s="22"/>
     </row>
     <row r="86" spans="2:30">
-      <c r="B86" s="146"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="147"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="147"/>
+      <c r="F86" s="147"/>
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -12384,11 +12414,11 @@
       <c r="T86" s="22"/>
     </row>
     <row r="87" spans="2:30">
-      <c r="B87" s="146"/>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
+      <c r="B87" s="147"/>
+      <c r="C87" s="147"/>
+      <c r="D87" s="147"/>
+      <c r="E87" s="147"/>
+      <c r="F87" s="147"/>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -12405,11 +12435,11 @@
       <c r="T87" s="22"/>
     </row>
     <row r="88" spans="2:30">
-      <c r="B88" s="146"/>
-      <c r="C88" s="146"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="146"/>
+      <c r="B88" s="147"/>
+      <c r="C88" s="147"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="147"/>
+      <c r="F88" s="147"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -12426,28 +12456,28 @@
       <c r="T88" s="22"/>
     </row>
     <row r="91" spans="2:30">
-      <c r="D91" s="72" t="s">
+      <c r="D91" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="73"/>
-      <c r="K91" s="72" t="s">
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="75"/>
+      <c r="K91" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="L91" s="76"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="73"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="75"/>
     </row>
     <row r="92" spans="2:30">
-      <c r="D92" s="74"/>
+      <c r="D92" s="76"/>
       <c r="E92" s="77"/>
       <c r="F92" s="77"/>
-      <c r="G92" s="75"/>
-      <c r="K92" s="74"/>
+      <c r="G92" s="78"/>
+      <c r="K92" s="76"/>
       <c r="L92" s="77"/>
       <c r="M92" s="77"/>
-      <c r="N92" s="75"/>
+      <c r="N92" s="78"/>
     </row>
     <row r="93" spans="2:30">
       <c r="D93" s="34"/>
@@ -12777,6 +12807,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="V3:Y4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="D91:G92"/>
     <mergeCell ref="K91:N92"/>
     <mergeCell ref="B19:F19"/>
@@ -12793,38 +12855,6 @@
     <mergeCell ref="B87:F87"/>
     <mergeCell ref="B88:F88"/>
     <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="V3:Y4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12847,12 +12877,12 @@
       <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -12864,40 +12894,40 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="F3" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="73"/>
-      <c r="K3" s="78" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="K3" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="P3" s="72" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="P3" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="74"/>
+      <c r="D4" s="78"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="77"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="P4" s="74"/>
+      <c r="H4" s="78"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="P4" s="76"/>
       <c r="Q4" s="77"/>
-      <c r="R4" s="75"/>
+      <c r="R4" s="78"/>
     </row>
     <row r="5" spans="1:20">
       <c r="G5" s="57"/>
@@ -12917,13 +12947,13 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="31" t="s">
         <v>146</v>
       </c>
@@ -12942,13 +12972,13 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="31" t="s">
         <v>146</v>
       </c>
@@ -12967,13 +12997,13 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="31" t="s">
         <v>146</v>
       </c>
@@ -12992,13 +13022,13 @@
       <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="31" t="s">
         <v>146</v>
       </c>
@@ -13017,13 +13047,13 @@
       <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="31" t="s">
         <v>146</v>
       </c>
@@ -13042,13 +13072,13 @@
       <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="31" t="s">
         <v>146</v>
       </c>
@@ -13067,13 +13097,13 @@
       <c r="T16" s="33"/>
     </row>
     <row r="17" spans="2:30">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="31" t="s">
         <v>146</v>
       </c>
@@ -13092,13 +13122,13 @@
       <c r="T17" s="33"/>
     </row>
     <row r="18" spans="2:30">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="31" t="s">
         <v>146</v>
       </c>
@@ -13117,13 +13147,13 @@
       <c r="T18" s="33"/>
     </row>
     <row r="19" spans="2:30">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>388</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="31" t="s">
         <v>146</v>
       </c>
@@ -13142,13 +13172,13 @@
       <c r="T19" s="33"/>
     </row>
     <row r="20" spans="2:30">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="31" t="s">
         <v>146</v>
       </c>
@@ -13167,13 +13197,13 @@
       <c r="T20" s="33"/>
     </row>
     <row r="21" spans="2:30">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="31" t="s">
         <v>146</v>
       </c>
@@ -13192,13 +13222,13 @@
       <c r="T21" s="33"/>
     </row>
     <row r="22" spans="2:30">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="31" t="s">
         <v>146</v>
       </c>
@@ -13217,13 +13247,13 @@
       <c r="T22" s="33"/>
     </row>
     <row r="23" spans="2:30">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="31" t="s">
         <v>146</v>
       </c>
@@ -13242,13 +13272,13 @@
       <c r="T23" s="33"/>
     </row>
     <row r="24" spans="2:30">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="31" t="s">
         <v>146</v>
       </c>
@@ -13267,13 +13297,13 @@
       <c r="T24" s="33"/>
     </row>
     <row r="25" spans="2:30">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="31" t="s">
         <v>146</v>
       </c>
@@ -13292,11 +13322,11 @@
       <c r="T25" s="33"/>
     </row>
     <row r="27" spans="2:30">
-      <c r="R27" s="102" t="s">
+      <c r="R27" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="S27" s="103"/>
-      <c r="T27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="105"/>
     </row>
     <row r="28" spans="2:30">
       <c r="B28" s="24"/>
@@ -13335,23 +13365,23 @@
       </c>
     </row>
     <row r="32" spans="2:30">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="102" t="s">
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" s="28" t="s">
@@ -13858,18 +13888,18 @@
       <c r="X54" s="21"/>
     </row>
     <row r="55" spans="2:30">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="C55" s="103"/>
-      <c r="D55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
-      <c r="G55" s="102" t="s">
+      <c r="G55" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="H55" s="103"/>
-      <c r="I55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="105"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22" t="s">
         <v>250</v>
@@ -13975,33 +14005,33 @@
       </c>
     </row>
     <row r="62" spans="2:30">
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="126" t="s">
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="125" t="s">
         <v>368</v>
       </c>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126" t="s">
+      <c r="H62" s="125"/>
+      <c r="I62" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126" t="s">
+      <c r="J62" s="125"/>
+      <c r="K62" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="L62" s="126"/>
-      <c r="M62" s="122" t="s">
+      <c r="L62" s="125"/>
+      <c r="M62" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="N62" s="139"/>
-      <c r="O62" s="122" t="s">
+      <c r="N62" s="140"/>
+      <c r="O62" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="P62" s="139"/>
+      <c r="P62" s="140"/>
       <c r="Q62" s="34" t="s">
         <v>373</v>
       </c>
@@ -14155,35 +14185,35 @@
       </c>
     </row>
     <row r="74" spans="2:30">
-      <c r="B74" s="114" t="s">
+      <c r="B74" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="102" t="s">
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="103" t="s">
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="L74" s="103"/>
-      <c r="M74" s="103"/>
-      <c r="N74" s="103"/>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="103"/>
-      <c r="R74" s="103"/>
-      <c r="S74" s="103"/>
-      <c r="T74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103"/>
-      <c r="W74" s="103"/>
-      <c r="X74" s="104"/>
+      <c r="L74" s="104"/>
+      <c r="M74" s="104"/>
+      <c r="N74" s="104"/>
+      <c r="O74" s="104"/>
+      <c r="P74" s="104"/>
+      <c r="Q74" s="104"/>
+      <c r="R74" s="104"/>
+      <c r="S74" s="104"/>
+      <c r="T74" s="104"/>
+      <c r="U74" s="104"/>
+      <c r="V74" s="104"/>
+      <c r="W74" s="104"/>
+      <c r="X74" s="105"/>
     </row>
     <row r="75" spans="2:30">
       <c r="B75" s="28" t="s">
@@ -14310,12 +14340,12 @@
       <c r="X78" s="25"/>
     </row>
     <row r="80" spans="2:30">
-      <c r="U80" s="102" t="s">
+      <c r="U80" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="V80" s="103"/>
-      <c r="W80" s="103"/>
-      <c r="X80" s="104"/>
+      <c r="V80" s="104"/>
+      <c r="W80" s="104"/>
+      <c r="X80" s="105"/>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="34" t="s">
@@ -14324,6 +14354,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="P3:R4"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="E74:J74"/>
     <mergeCell ref="K74:X74"/>
@@ -14340,24 +14388,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B62:F62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="P3:R4"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14380,12 +14410,12 @@
       <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -14431,80 +14461,80 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
     <row r="7" spans="1:31">
@@ -15245,12 +15275,12 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -15296,80 +15326,80 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
     <row r="8" spans="1:31">
@@ -15600,24 +15630,24 @@
       <c r="X17" s="33"/>
     </row>
     <row r="20" spans="2:30">
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="73"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="2:30">
-      <c r="I21" s="74"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
       <c r="L21" s="77"/>
       <c r="M21" s="77"/>
       <c r="N21" s="77"/>
-      <c r="O21" s="75"/>
+      <c r="O21" s="78"/>
     </row>
     <row r="23" spans="2:30">
       <c r="I23" s="34" t="s">
@@ -15961,7 +15991,7 @@
     <hyperlink ref="D1" r:id="rId1" display="http://jiyujin-freelance.com/jiyujin/view?next=guest/tradingLaw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15978,12 +16008,12 @@
       <selection activeCell="G3" sqref="G3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="16" customWidth="1"/>
-    <col min="33" max="48" width="4.6640625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="12.83203125" style="1"/>
+    <col min="1" max="31" width="4.69921875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="16" customWidth="1"/>
+    <col min="33" max="48" width="4.69921875" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="12.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -15995,66 +16025,66 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18" customHeight="1">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="G3" s="72" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="G3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
-      <c r="L3" s="72" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
+      <c r="L3" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
-      <c r="Q3" s="96" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="Q3" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
-      <c r="V3" s="96" t="s">
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
-      <c r="AA3" s="84" t="s">
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="G4" s="74"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
-      <c r="L4" s="74"/>
+      <c r="J4" s="78"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="O4" s="78"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" s="13"/>
@@ -16244,20 +16274,20 @@
     </row>
     <row r="12" spans="1:30">
       <c r="B12" s="6"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -16279,16 +16309,16 @@
     </row>
     <row r="13" spans="1:30">
       <c r="B13" s="6"/>
-      <c r="C13" s="74"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="77"/>
       <c r="E13" s="77"/>
-      <c r="F13" s="75"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="74"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="78"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -16467,38 +16497,38 @@
       <c r="AD41" s="11"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="73"/>
-      <c r="I43" s="72" t="s">
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="I43" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="73"/>
-      <c r="O43" s="72" t="s">
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="75"/>
+      <c r="O43" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="73"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="75"/>
     </row>
     <row r="44" spans="2:30">
-      <c r="C44" s="74"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="I44" s="74"/>
+      <c r="F44" s="78"/>
+      <c r="I44" s="76"/>
       <c r="J44" s="77"/>
       <c r="K44" s="77"/>
-      <c r="L44" s="75"/>
-      <c r="O44" s="74"/>
+      <c r="L44" s="78"/>
+      <c r="O44" s="76"/>
       <c r="P44" s="77"/>
       <c r="Q44" s="77"/>
-      <c r="R44" s="75"/>
+      <c r="R44" s="78"/>
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="3" t="s">
@@ -16606,38 +16636,38 @@
       <c r="AD48" s="11"/>
     </row>
     <row r="50" spans="2:30">
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="73"/>
-      <c r="I50" s="72" t="s">
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
+      <c r="I50" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="73"/>
-      <c r="O50" s="72" t="s">
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="75"/>
+      <c r="O50" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="73"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="75"/>
     </row>
     <row r="51" spans="2:30">
-      <c r="C51" s="74"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="77"/>
       <c r="E51" s="77"/>
-      <c r="F51" s="75"/>
-      <c r="I51" s="74"/>
+      <c r="F51" s="78"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="77"/>
       <c r="K51" s="77"/>
-      <c r="L51" s="75"/>
-      <c r="O51" s="74"/>
+      <c r="L51" s="78"/>
+      <c r="O51" s="76"/>
       <c r="P51" s="77"/>
       <c r="Q51" s="77"/>
-      <c r="R51" s="75"/>
+      <c r="R51" s="78"/>
     </row>
     <row r="53" spans="2:30">
       <c r="B53" s="3" t="s">
@@ -16745,38 +16775,38 @@
       <c r="AD55" s="11"/>
     </row>
     <row r="57" spans="2:30">
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="73"/>
-      <c r="I57" s="72" t="s">
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="75"/>
+      <c r="I57" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="73"/>
-      <c r="O57" s="72" t="s">
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="75"/>
+      <c r="O57" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="73"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="75"/>
     </row>
     <row r="58" spans="2:30">
-      <c r="C58" s="74"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="77"/>
       <c r="E58" s="77"/>
-      <c r="F58" s="75"/>
-      <c r="I58" s="74"/>
+      <c r="F58" s="78"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="77"/>
       <c r="K58" s="77"/>
-      <c r="L58" s="75"/>
-      <c r="O58" s="74"/>
+      <c r="L58" s="78"/>
+      <c r="O58" s="76"/>
       <c r="P58" s="77"/>
       <c r="Q58" s="77"/>
-      <c r="R58" s="75"/>
+      <c r="R58" s="78"/>
     </row>
     <row r="60" spans="2:30">
       <c r="B60" s="3" t="s">
@@ -16884,38 +16914,38 @@
       <c r="AD62" s="11"/>
     </row>
     <row r="64" spans="2:30">
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="73"/>
-      <c r="I64" s="72" t="s">
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="75"/>
+      <c r="I64" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="73"/>
-      <c r="O64" s="72" t="s">
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="75"/>
+      <c r="O64" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="73"/>
+      <c r="P64" s="74"/>
+      <c r="Q64" s="74"/>
+      <c r="R64" s="75"/>
     </row>
     <row r="65" spans="2:30">
-      <c r="C65" s="74"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="77"/>
       <c r="E65" s="77"/>
-      <c r="F65" s="75"/>
-      <c r="I65" s="74"/>
+      <c r="F65" s="78"/>
+      <c r="I65" s="76"/>
       <c r="J65" s="77"/>
       <c r="K65" s="77"/>
-      <c r="L65" s="75"/>
-      <c r="O65" s="74"/>
+      <c r="L65" s="78"/>
+      <c r="O65" s="76"/>
       <c r="P65" s="77"/>
       <c r="Q65" s="77"/>
-      <c r="R65" s="75"/>
+      <c r="R65" s="78"/>
     </row>
     <row r="67" spans="2:30">
       <c r="B67" s="3" t="s">
@@ -17023,63 +17053,63 @@
       <c r="AD69" s="11"/>
     </row>
     <row r="71" spans="2:30">
-      <c r="C71" s="72" t="s">
+      <c r="C71" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="73"/>
-      <c r="I71" s="72" t="s">
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="75"/>
+      <c r="I71" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="73"/>
-      <c r="O71" s="72" t="s">
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="75"/>
+      <c r="O71" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="73"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="75"/>
     </row>
     <row r="72" spans="2:30">
-      <c r="C72" s="74"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="77"/>
       <c r="E72" s="77"/>
-      <c r="F72" s="75"/>
-      <c r="I72" s="74"/>
+      <c r="F72" s="78"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="77"/>
       <c r="K72" s="77"/>
-      <c r="L72" s="75"/>
-      <c r="O72" s="74"/>
+      <c r="L72" s="78"/>
+      <c r="O72" s="76"/>
       <c r="P72" s="77"/>
       <c r="Q72" s="77"/>
-      <c r="R72" s="75"/>
+      <c r="R72" s="78"/>
     </row>
     <row r="74" spans="2:30">
-      <c r="H74" s="72" t="s">
+      <c r="H74" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="76"/>
-      <c r="O74" s="76"/>
-      <c r="P74" s="76"/>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="76"/>
-      <c r="S74" s="76"/>
-      <c r="T74" s="76"/>
-      <c r="U74" s="76"/>
-      <c r="V74" s="76"/>
-      <c r="W74" s="76"/>
-      <c r="X74" s="76"/>
-      <c r="Y74" s="73"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="74"/>
+      <c r="S74" s="74"/>
+      <c r="T74" s="74"/>
+      <c r="U74" s="74"/>
+      <c r="V74" s="74"/>
+      <c r="W74" s="74"/>
+      <c r="X74" s="74"/>
+      <c r="Y74" s="75"/>
     </row>
     <row r="75" spans="2:30">
-      <c r="H75" s="74"/>
+      <c r="H75" s="76"/>
       <c r="I75" s="77"/>
       <c r="J75" s="77"/>
       <c r="K75" s="77"/>
@@ -17096,7 +17126,7 @@
       <c r="V75" s="77"/>
       <c r="W75" s="77"/>
       <c r="X75" s="77"/>
-      <c r="Y75" s="75"/>
+      <c r="Y75" s="78"/>
     </row>
     <row r="76" spans="2:30">
       <c r="H76" s="15"/>
@@ -17189,6 +17219,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C71:F72"/>
+    <mergeCell ref="I71:L72"/>
+    <mergeCell ref="O71:R72"/>
+    <mergeCell ref="H74:Y75"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="C57:F58"/>
+    <mergeCell ref="I57:L58"/>
+    <mergeCell ref="O57:R58"/>
+    <mergeCell ref="C64:F65"/>
+    <mergeCell ref="I64:L65"/>
+    <mergeCell ref="O64:R65"/>
     <mergeCell ref="AA3:AD4"/>
     <mergeCell ref="C43:F44"/>
     <mergeCell ref="I43:L44"/>
@@ -17201,18 +17243,6 @@
     <mergeCell ref="L3:O4"/>
     <mergeCell ref="Q3:T4"/>
     <mergeCell ref="V3:Y4"/>
-    <mergeCell ref="C71:F72"/>
-    <mergeCell ref="I71:L72"/>
-    <mergeCell ref="O71:R72"/>
-    <mergeCell ref="H74:Y75"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="C57:F58"/>
-    <mergeCell ref="I57:L58"/>
-    <mergeCell ref="O57:R58"/>
-    <mergeCell ref="C64:F65"/>
-    <mergeCell ref="I64:L65"/>
-    <mergeCell ref="O64:R65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17235,12 +17265,12 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -17286,80 +17316,80 @@
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="1:31">
@@ -17396,18 +17426,18 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="G6" s="102" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
+      <c r="G6" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="17" t="s">
@@ -17552,28 +17582,28 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="1"/>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="73"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="72" t="s">
+      <c r="I33" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="75"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="72" t="s">
+      <c r="O33" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="73"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -17589,22 +17619,22 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" s="1"/>
-      <c r="C34" s="74"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="77"/>
       <c r="E34" s="77"/>
-      <c r="F34" s="75"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="74"/>
+      <c r="I34" s="76"/>
       <c r="J34" s="77"/>
       <c r="K34" s="77"/>
-      <c r="L34" s="75"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="74"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="77"/>
       <c r="Q34" s="77"/>
-      <c r="R34" s="75"/>
+      <c r="R34" s="78"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -17756,28 +17786,28 @@
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="1"/>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="72" t="s">
+      <c r="I40" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="73"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="75"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="73"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="75"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -17793,22 +17823,22 @@
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="1"/>
-      <c r="C41" s="74"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="77"/>
       <c r="E41" s="77"/>
-      <c r="F41" s="75"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="74"/>
+      <c r="I41" s="76"/>
       <c r="J41" s="77"/>
       <c r="K41" s="77"/>
-      <c r="L41" s="75"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="74"/>
+      <c r="O41" s="76"/>
       <c r="P41" s="77"/>
       <c r="Q41" s="77"/>
-      <c r="R41" s="75"/>
+      <c r="R41" s="78"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -17960,28 +17990,28 @@
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="1"/>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="72" t="s">
+      <c r="I47" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="73"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="75"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="72" t="s">
+      <c r="O47" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="73"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="75"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -17997,22 +18027,22 @@
     </row>
     <row r="48" spans="2:30">
       <c r="B48" s="1"/>
-      <c r="C48" s="74"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="77"/>
       <c r="E48" s="77"/>
-      <c r="F48" s="75"/>
+      <c r="F48" s="78"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="74"/>
+      <c r="I48" s="76"/>
       <c r="J48" s="77"/>
       <c r="K48" s="77"/>
-      <c r="L48" s="75"/>
+      <c r="L48" s="78"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="74"/>
+      <c r="O48" s="76"/>
       <c r="P48" s="77"/>
       <c r="Q48" s="77"/>
-      <c r="R48" s="75"/>
+      <c r="R48" s="78"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -18164,28 +18194,28 @@
     </row>
     <row r="54" spans="2:30">
       <c r="B54" s="1"/>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="75"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="72" t="s">
+      <c r="I54" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="73"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="75"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="72" t="s">
+      <c r="O54" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="73"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="75"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -18201,22 +18231,22 @@
     </row>
     <row r="55" spans="2:30">
       <c r="B55" s="1"/>
-      <c r="C55" s="74"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="77"/>
       <c r="E55" s="77"/>
-      <c r="F55" s="75"/>
+      <c r="F55" s="78"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="74"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="77"/>
       <c r="K55" s="77"/>
-      <c r="L55" s="75"/>
+      <c r="L55" s="78"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="74"/>
+      <c r="O55" s="76"/>
       <c r="P55" s="77"/>
       <c r="Q55" s="77"/>
-      <c r="R55" s="75"/>
+      <c r="R55" s="78"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -18368,28 +18398,28 @@
     </row>
     <row r="61" spans="2:30">
       <c r="B61" s="1"/>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="75"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="72" t="s">
+      <c r="I61" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="73"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="75"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="72" t="s">
+      <c r="O61" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="73"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="75"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -18405,22 +18435,22 @@
     </row>
     <row r="62" spans="2:30">
       <c r="B62" s="1"/>
-      <c r="C62" s="74"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="77"/>
       <c r="E62" s="77"/>
-      <c r="F62" s="75"/>
+      <c r="F62" s="78"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="74"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
-      <c r="L62" s="75"/>
+      <c r="L62" s="78"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="74"/>
+      <c r="O62" s="76"/>
       <c r="P62" s="77"/>
       <c r="Q62" s="77"/>
-      <c r="R62" s="75"/>
+      <c r="R62" s="78"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -18572,28 +18602,28 @@
     </row>
     <row r="68" spans="2:30">
       <c r="B68" s="1"/>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="73"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="75"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="72" t="s">
+      <c r="I68" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="76"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="73"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="75"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="72" t="s">
+      <c r="O68" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="73"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="75"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -18609,22 +18639,22 @@
     </row>
     <row r="69" spans="2:30">
       <c r="B69" s="1"/>
-      <c r="C69" s="74"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="77"/>
       <c r="E69" s="77"/>
-      <c r="F69" s="75"/>
+      <c r="F69" s="78"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="74"/>
+      <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
-      <c r="L69" s="75"/>
+      <c r="L69" s="78"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="74"/>
+      <c r="O69" s="76"/>
       <c r="P69" s="77"/>
       <c r="Q69" s="77"/>
-      <c r="R69" s="75"/>
+      <c r="R69" s="78"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -18776,28 +18806,28 @@
     </row>
     <row r="75" spans="2:30">
       <c r="B75" s="1"/>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="75"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="72" t="s">
+      <c r="I75" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="73"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="75"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="72" t="s">
+      <c r="O75" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P75" s="76"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="73"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="74"/>
+      <c r="R75" s="75"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -18813,22 +18843,22 @@
     </row>
     <row r="76" spans="2:30">
       <c r="B76" s="1"/>
-      <c r="C76" s="74"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="77"/>
       <c r="E76" s="77"/>
-      <c r="F76" s="75"/>
+      <c r="F76" s="78"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="74"/>
+      <c r="I76" s="76"/>
       <c r="J76" s="77"/>
       <c r="K76" s="77"/>
-      <c r="L76" s="75"/>
+      <c r="L76" s="78"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="74"/>
+      <c r="O76" s="76"/>
       <c r="P76" s="77"/>
       <c r="Q76" s="77"/>
-      <c r="R76" s="75"/>
+      <c r="R76" s="78"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
@@ -18980,28 +19010,28 @@
     </row>
     <row r="82" spans="2:30">
       <c r="B82" s="1"/>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="73"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="72" t="s">
+      <c r="I82" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="73"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="75"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="72" t="s">
+      <c r="O82" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="73"/>
+      <c r="P82" s="74"/>
+      <c r="Q82" s="74"/>
+      <c r="R82" s="75"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -19017,22 +19047,22 @@
     </row>
     <row r="83" spans="2:30">
       <c r="B83" s="1"/>
-      <c r="C83" s="74"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="77"/>
       <c r="E83" s="77"/>
-      <c r="F83" s="75"/>
+      <c r="F83" s="78"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="74"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="77"/>
       <c r="K83" s="77"/>
-      <c r="L83" s="75"/>
+      <c r="L83" s="78"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="74"/>
+      <c r="O83" s="76"/>
       <c r="P83" s="77"/>
       <c r="Q83" s="77"/>
-      <c r="R83" s="75"/>
+      <c r="R83" s="78"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -19184,28 +19214,28 @@
     </row>
     <row r="89" spans="2:30">
       <c r="B89" s="1"/>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="73"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="75"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="72" t="s">
+      <c r="I89" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="73"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="75"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="72" t="s">
+      <c r="O89" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P89" s="76"/>
-      <c r="Q89" s="76"/>
-      <c r="R89" s="73"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="75"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -19221,22 +19251,22 @@
     </row>
     <row r="90" spans="2:30">
       <c r="B90" s="1"/>
-      <c r="C90" s="74"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="77"/>
       <c r="E90" s="77"/>
-      <c r="F90" s="75"/>
+      <c r="F90" s="78"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="74"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="77"/>
       <c r="K90" s="77"/>
-      <c r="L90" s="75"/>
+      <c r="L90" s="78"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="74"/>
+      <c r="O90" s="76"/>
       <c r="P90" s="77"/>
       <c r="Q90" s="77"/>
-      <c r="R90" s="75"/>
+      <c r="R90" s="78"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -19388,28 +19418,28 @@
     </row>
     <row r="96" spans="2:30">
       <c r="B96" s="1"/>
-      <c r="C96" s="72" t="s">
+      <c r="C96" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="73"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="72" t="s">
+      <c r="I96" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J96" s="76"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="73"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="75"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="72" t="s">
+      <c r="O96" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="P96" s="76"/>
-      <c r="Q96" s="76"/>
-      <c r="R96" s="73"/>
+      <c r="P96" s="74"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="75"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -19425,22 +19455,22 @@
     </row>
     <row r="97" spans="2:30">
       <c r="B97" s="1"/>
-      <c r="C97" s="74"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="77"/>
       <c r="E97" s="77"/>
-      <c r="F97" s="75"/>
+      <c r="F97" s="78"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="74"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="77"/>
       <c r="K97" s="77"/>
-      <c r="L97" s="75"/>
+      <c r="L97" s="78"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="74"/>
+      <c r="O97" s="76"/>
       <c r="P97" s="77"/>
       <c r="Q97" s="77"/>
-      <c r="R97" s="75"/>
+      <c r="R97" s="78"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -19798,6 +19828,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C89:F90"/>
+    <mergeCell ref="I89:L90"/>
+    <mergeCell ref="O89:R90"/>
+    <mergeCell ref="C96:F97"/>
+    <mergeCell ref="I96:L97"/>
+    <mergeCell ref="O96:R97"/>
+    <mergeCell ref="C75:F76"/>
+    <mergeCell ref="I75:L76"/>
+    <mergeCell ref="O75:R76"/>
+    <mergeCell ref="C82:F83"/>
+    <mergeCell ref="I82:L83"/>
+    <mergeCell ref="O82:R83"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="I61:L62"/>
+    <mergeCell ref="O61:R62"/>
+    <mergeCell ref="C68:F69"/>
+    <mergeCell ref="I68:L69"/>
+    <mergeCell ref="O68:R69"/>
+    <mergeCell ref="C47:F48"/>
+    <mergeCell ref="I47:L48"/>
+    <mergeCell ref="O47:R48"/>
+    <mergeCell ref="C54:F55"/>
+    <mergeCell ref="I54:L55"/>
+    <mergeCell ref="O54:R55"/>
     <mergeCell ref="V3:Y4"/>
     <mergeCell ref="AA3:AD4"/>
     <mergeCell ref="C40:F41"/>
@@ -19812,30 +19866,6 @@
     <mergeCell ref="C33:F34"/>
     <mergeCell ref="I33:L34"/>
     <mergeCell ref="O33:R34"/>
-    <mergeCell ref="C47:F48"/>
-    <mergeCell ref="I47:L48"/>
-    <mergeCell ref="O47:R48"/>
-    <mergeCell ref="C54:F55"/>
-    <mergeCell ref="I54:L55"/>
-    <mergeCell ref="O54:R55"/>
-    <mergeCell ref="C61:F62"/>
-    <mergeCell ref="I61:L62"/>
-    <mergeCell ref="O61:R62"/>
-    <mergeCell ref="C68:F69"/>
-    <mergeCell ref="I68:L69"/>
-    <mergeCell ref="O68:R69"/>
-    <mergeCell ref="C75:F76"/>
-    <mergeCell ref="I75:L76"/>
-    <mergeCell ref="O75:R76"/>
-    <mergeCell ref="C82:F83"/>
-    <mergeCell ref="I82:L83"/>
-    <mergeCell ref="O82:R83"/>
-    <mergeCell ref="C89:F90"/>
-    <mergeCell ref="I89:L90"/>
-    <mergeCell ref="O89:R90"/>
-    <mergeCell ref="C96:F97"/>
-    <mergeCell ref="I96:L97"/>
-    <mergeCell ref="O96:R97"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19858,12 +19888,12 @@
       <selection activeCell="M28" sqref="M28:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -19909,80 +19939,80 @@
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
     <row r="7" spans="1:31">
@@ -20249,7 +20279,7 @@
       <c r="AC14" s="22"/>
       <c r="AD14" s="23"/>
     </row>
-    <row r="15" spans="1:31" ht="19" thickBot="1">
+    <row r="15" spans="1:31" ht="16.2" thickBot="1">
       <c r="B15" s="64"/>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
@@ -20280,7 +20310,7 @@
       <c r="AC15" s="65"/>
       <c r="AD15" s="66"/>
     </row>
-    <row r="16" spans="1:31" ht="19" thickTop="1">
+    <row r="16" spans="1:31" ht="16.2" thickTop="1">
       <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
@@ -20576,30 +20606,30 @@
       <c r="AD24" s="25"/>
     </row>
     <row r="28" spans="2:30">
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="73"/>
-      <c r="M28" s="72" t="s">
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="M28" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
     </row>
     <row r="29" spans="2:30">
-      <c r="F29" s="74"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="75"/>
-      <c r="M29" s="74"/>
+      <c r="I29" s="78"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="77"/>
       <c r="O29" s="77"/>
-      <c r="P29" s="75"/>
-    </row>
-    <row r="31" spans="2:30" ht="19" thickBot="1">
+      <c r="P29" s="78"/>
+    </row>
+    <row r="31" spans="2:30" ht="16.2" thickBot="1">
       <c r="B31" s="68" t="s">
         <v>316</v>
       </c>
@@ -20632,7 +20662,7 @@
       <c r="AC31" s="65"/>
       <c r="AD31" s="65"/>
     </row>
-    <row r="32" spans="2:30" ht="19" thickTop="1">
+    <row r="32" spans="2:30" ht="16.2" thickTop="1">
       <c r="B32" s="29" t="s">
         <v>15</v>
       </c>
@@ -20928,28 +20958,28 @@
       <c r="AD40" s="25"/>
     </row>
     <row r="42" spans="2:30">
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="73"/>
-      <c r="M42" s="72" t="s">
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+      <c r="M42" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="73"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="75"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="F43" s="74"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="77"/>
       <c r="H43" s="77"/>
-      <c r="I43" s="75"/>
-      <c r="M43" s="74"/>
+      <c r="I43" s="78"/>
+      <c r="M43" s="76"/>
       <c r="N43" s="77"/>
       <c r="O43" s="77"/>
-      <c r="P43" s="75"/>
+      <c r="P43" s="78"/>
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="10"/>
@@ -21275,16 +21305,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="V3:Y4"/>
     <mergeCell ref="F42:I43"/>
     <mergeCell ref="M42:P43"/>
     <mergeCell ref="AA3:AD4"/>
     <mergeCell ref="F28:I29"/>
     <mergeCell ref="M28:P29"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="V3:Y4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21306,12 +21336,12 @@
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -21357,83 +21387,83 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="105" t="s">
+      <c r="AA3" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="108"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="110"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="111"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="20">
+    <row r="6" spans="1:31" ht="17.399999999999999">
       <c r="B6" s="62" t="s">
         <v>59</v>
       </c>
@@ -21506,7 +21536,7 @@
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
     </row>
-    <row r="11" spans="1:31" ht="20">
+    <row r="11" spans="1:31" ht="17.399999999999999">
       <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
@@ -21530,11 +21560,11 @@
       </c>
     </row>
     <row r="17" spans="2:25">
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
     </row>
     <row r="20" spans="2:25">
       <c r="B20" s="17" t="s">
@@ -21578,59 +21608,59 @@
       </c>
     </row>
     <row r="32" spans="2:25">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="73"/>
-      <c r="O32" s="72" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="O32" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="73"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="75"/>
     </row>
     <row r="33" spans="2:30">
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="113"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="114"/>
     </row>
     <row r="34" spans="2:30">
-      <c r="B34" s="74"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="77"/>
       <c r="D34" s="77"/>
       <c r="E34" s="77"/>
@@ -21640,8 +21670,8 @@
       <c r="I34" s="77"/>
       <c r="J34" s="77"/>
       <c r="K34" s="77"/>
-      <c r="L34" s="75"/>
-      <c r="O34" s="74"/>
+      <c r="L34" s="78"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="77"/>
       <c r="Q34" s="77"/>
       <c r="R34" s="77"/>
@@ -21651,7 +21681,7 @@
       <c r="V34" s="77"/>
       <c r="W34" s="77"/>
       <c r="X34" s="77"/>
-      <c r="Y34" s="75"/>
+      <c r="Y34" s="78"/>
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="10"/>
@@ -22003,16 +22033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK91" sqref="AK91"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -22064,47 +22094,47 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
       <c r="AH3" s="17" t="s">
         <v>398</v>
@@ -22112,35 +22142,35 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
       <c r="AH4" s="17" t="s">
         <v>399</v>
@@ -22170,13 +22200,13 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -22195,13 +22225,13 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -22467,18 +22497,18 @@
       </c>
     </row>
     <row r="24" spans="2:35">
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="25" spans="2:35">
-      <c r="G25" s="74"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="77"/>
       <c r="I25" s="77"/>
-      <c r="J25" s="75"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="27" spans="2:35">
       <c r="B27" s="17" t="s">
@@ -22661,28 +22691,28 @@
       <c r="X33" s="25"/>
     </row>
     <row r="35" spans="2:30">
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="73"/>
-      <c r="N35" s="72" t="s">
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75"/>
+      <c r="N35" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="73"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="75"/>
     </row>
     <row r="36" spans="2:30">
-      <c r="G36" s="74"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
-      <c r="J36" s="75"/>
-      <c r="N36" s="74"/>
+      <c r="J36" s="78"/>
+      <c r="N36" s="76"/>
       <c r="O36" s="77"/>
       <c r="P36" s="77"/>
-      <c r="Q36" s="75"/>
+      <c r="Q36" s="78"/>
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="24"/>
@@ -22966,7 +22996,7 @@
       <c r="W50" s="22"/>
       <c r="X50" s="23"/>
     </row>
-    <row r="51" spans="1:34" ht="19" thickBot="1">
+    <row r="51" spans="1:34" ht="16.2" thickBot="1">
       <c r="B51" s="64"/>
       <c r="C51" s="65"/>
       <c r="D51" s="65"/>
@@ -22998,7 +23028,7 @@
       </c>
       <c r="AA51" s="34"/>
     </row>
-    <row r="52" spans="1:34" ht="19" thickTop="1">
+    <row r="52" spans="1:34" ht="16.2" thickTop="1">
       <c r="B52" s="29" t="s">
         <v>15</v>
       </c>
@@ -23283,12 +23313,12 @@
       </c>
     </row>
     <row r="63" spans="1:34">
-      <c r="H63" s="72" t="s">
+      <c r="H63" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="73"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="75"/>
       <c r="M63" s="34" t="s">
         <v>132</v>
       </c>
@@ -23298,10 +23328,10 @@
     </row>
     <row r="64" spans="1:34">
       <c r="A64" s="22"/>
-      <c r="H64" s="74"/>
+      <c r="H64" s="76"/>
       <c r="I64" s="77"/>
       <c r="J64" s="77"/>
-      <c r="K64" s="75"/>
+      <c r="K64" s="78"/>
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
       <c r="AA64" s="22"/>
@@ -23870,7 +23900,7 @@
       <c r="AI85" s="7"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="2:40" ht="19" thickBot="1">
+    <row r="86" spans="2:40" ht="16.2" thickBot="1">
       <c r="B86" s="64" t="s">
         <v>384</v>
       </c>
@@ -23901,7 +23931,7 @@
       <c r="AI86" s="7"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="2:40" ht="19" thickTop="1">
+    <row r="87" spans="2:40" ht="16.2" thickTop="1">
       <c r="B87" s="29" t="s">
         <v>15</v>
       </c>
@@ -24181,30 +24211,30 @@
       <c r="AN97" s="7"/>
     </row>
     <row r="98" spans="2:40">
-      <c r="F98" s="72" t="s">
+      <c r="F98" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
-      <c r="I98" s="73"/>
-      <c r="M98" s="72" t="s">
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="75"/>
+      <c r="M98" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="N98" s="76"/>
-      <c r="O98" s="76"/>
-      <c r="P98" s="73"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="75"/>
       <c r="AI98" s="7"/>
       <c r="AN98" s="7"/>
     </row>
     <row r="99" spans="2:40">
-      <c r="F99" s="74"/>
+      <c r="F99" s="76"/>
       <c r="G99" s="77"/>
       <c r="H99" s="77"/>
-      <c r="I99" s="75"/>
-      <c r="M99" s="74"/>
+      <c r="I99" s="78"/>
+      <c r="M99" s="76"/>
       <c r="N99" s="77"/>
       <c r="O99" s="77"/>
-      <c r="P99" s="75"/>
+      <c r="P99" s="78"/>
       <c r="AI99" s="7"/>
       <c r="AN99" s="7"/>
     </row>
@@ -24753,12 +24783,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="V3:Y4"/>
     <mergeCell ref="F98:I99"/>
     <mergeCell ref="M98:P99"/>
     <mergeCell ref="B9:F9"/>
@@ -24767,6 +24791,12 @@
     <mergeCell ref="G24:J25"/>
     <mergeCell ref="G35:J36"/>
     <mergeCell ref="N35:Q36"/>
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="V3:Y4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24788,12 +24818,12 @@
       <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -24805,40 +24835,40 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="F3" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="73"/>
-      <c r="J3" s="72" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="J3" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="73"/>
-      <c r="O3" s="72" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="O3" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="73"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
-      <c r="F4" s="74"/>
+      <c r="D4" s="78"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="77"/>
-      <c r="H4" s="75"/>
-      <c r="J4" s="74"/>
+      <c r="H4" s="78"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="77"/>
-      <c r="L4" s="75"/>
-      <c r="O4" s="74"/>
+      <c r="L4" s="78"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="77"/>
-      <c r="Q4" s="75"/>
+      <c r="Q4" s="78"/>
     </row>
     <row r="5" spans="1:24">
       <c r="B5" s="42"/>
@@ -25049,11 +25079,11 @@
       <c r="X15" s="25"/>
     </row>
     <row r="17" spans="2:30">
-      <c r="U17" s="102" t="s">
+      <c r="U17" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="V17" s="103"/>
-      <c r="W17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="105"/>
       <c r="Y17" s="34" t="s">
         <v>142</v>
       </c>
@@ -25106,29 +25136,29 @@
       </c>
     </row>
     <row r="24" spans="2:30">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="102" t="s">
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="102" t="s">
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="105"/>
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="28" t="s">
@@ -25259,11 +25289,11 @@
       <c r="B32" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="102" t="s">
+      <c r="G32" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
       <c r="K32" s="34" t="s">
         <v>161</v>
       </c>
@@ -25673,18 +25703,18 @@
       <c r="X48" s="21"/>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="102" t="s">
+      <c r="G49" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="H49" s="103"/>
-      <c r="I49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="105"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="40" t="s">
@@ -25810,22 +25840,22 @@
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="122" t="s">
         <v>358</v>
       </c>
-      <c r="H54" s="115"/>
+      <c r="H54" s="124"/>
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
-      <c r="K54" s="114" t="s">
+      <c r="K54" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="L54" s="115"/>
+      <c r="L54" s="124"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
-      <c r="O54" s="118" t="s">
+      <c r="O54" s="115" t="s">
         <v>364</v>
       </c>
-      <c r="P54" s="119"/>
+      <c r="P54" s="116"/>
       <c r="Q54" s="43"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
@@ -25841,16 +25871,16 @@
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="117"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="127"/>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="117"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="127"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="121"/>
+      <c r="O55" s="117"/>
+      <c r="P55" s="118"/>
       <c r="Q55" s="43"/>
       <c r="R55" s="40" t="s">
         <v>441</v>
@@ -25940,28 +25970,28 @@
       <c r="X58" s="23"/>
     </row>
     <row r="59" spans="2:24">
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="103"/>
-      <c r="D59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="102" t="s">
+      <c r="G59" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="H59" s="103"/>
-      <c r="I59" s="104"/>
-      <c r="K59" s="102" t="s">
+      <c r="H59" s="104"/>
+      <c r="I59" s="105"/>
+      <c r="K59" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="103"/>
-      <c r="M59" s="104"/>
-      <c r="O59" s="122" t="s">
+      <c r="L59" s="104"/>
+      <c r="M59" s="105"/>
+      <c r="O59" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="P59" s="123"/>
-      <c r="Q59" s="124"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="121"/>
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22"/>
@@ -26059,23 +26089,23 @@
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="102" t="s">
+      <c r="G63" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="H63" s="103"/>
-      <c r="I63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="105"/>
       <c r="J63" s="69"/>
-      <c r="K63" s="102" t="s">
+      <c r="K63" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="L63" s="103"/>
-      <c r="M63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="105"/>
       <c r="N63" s="69"/>
-      <c r="O63" s="122" t="s">
+      <c r="O63" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="P63" s="123"/>
-      <c r="Q63" s="124"/>
+      <c r="P63" s="120"/>
+      <c r="Q63" s="121"/>
       <c r="R63" s="69"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
@@ -26165,37 +26195,37 @@
       </c>
     </row>
     <row r="71" spans="2:30">
-      <c r="B71" s="114" t="s">
+      <c r="B71" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="125"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="114" t="s">
+      <c r="C71" s="123"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="F71" s="125"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="126" t="s">
+      <c r="F71" s="123"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="102" t="s">
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="L71" s="103"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="103"/>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="103"/>
-      <c r="R71" s="103"/>
-      <c r="S71" s="103"/>
-      <c r="T71" s="103"/>
-      <c r="U71" s="103"/>
-      <c r="V71" s="103"/>
-      <c r="W71" s="103"/>
-      <c r="X71" s="104"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
+      <c r="R71" s="104"/>
+      <c r="S71" s="104"/>
+      <c r="T71" s="104"/>
+      <c r="U71" s="104"/>
+      <c r="V71" s="104"/>
+      <c r="W71" s="104"/>
+      <c r="X71" s="105"/>
     </row>
     <row r="72" spans="2:30">
       <c r="B72" s="28" t="s">
@@ -26330,12 +26360,12 @@
       <c r="X75" s="25"/>
     </row>
     <row r="77" spans="2:30">
-      <c r="U77" s="102" t="s">
+      <c r="U77" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="V77" s="103"/>
-      <c r="W77" s="103"/>
-      <c r="X77" s="104"/>
+      <c r="V77" s="104"/>
+      <c r="W77" s="104"/>
+      <c r="X77" s="105"/>
     </row>
     <row r="78" spans="2:30">
       <c r="B78" s="34" t="s">
@@ -26344,16 +26374,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O54:P55"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:X71"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K63:M63"/>
     <mergeCell ref="U77:X77"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F3:H4"/>
@@ -26370,6 +26390,16 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="G59:I59"/>
     <mergeCell ref="G54:H55"/>
+    <mergeCell ref="O54:P55"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:X71"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K63:M63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26392,12 +26422,12 @@
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26443,83 +26473,83 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="127" t="s">
+      <c r="Q3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="130"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="133" t="s">
+      <c r="V3" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="136"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="132"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="133"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="138"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="139"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="20">
+    <row r="6" spans="1:31" ht="17.399999999999999">
       <c r="B6" s="26" t="s">
         <v>59</v>
       </c>
@@ -26540,7 +26570,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="20">
+    <row r="11" spans="1:31" ht="17.399999999999999">
       <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
@@ -26574,11 +26604,11 @@
       </c>
     </row>
     <row r="18" spans="2:25">
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="17" t="s">
@@ -26622,59 +26652,59 @@
       </c>
     </row>
     <row r="31" spans="2:25">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="73"/>
-      <c r="O31" s="72" t="s">
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="75"/>
+      <c r="O31" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="75"/>
     </row>
     <row r="32" spans="2:25">
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="113"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="114"/>
     </row>
     <row r="33" spans="2:30">
-      <c r="B33" s="74"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
       <c r="E33" s="77"/>
@@ -26684,8 +26714,8 @@
       <c r="I33" s="77"/>
       <c r="J33" s="77"/>
       <c r="K33" s="77"/>
-      <c r="L33" s="75"/>
-      <c r="O33" s="74"/>
+      <c r="L33" s="78"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="77"/>
       <c r="Q33" s="77"/>
       <c r="R33" s="77"/>
@@ -26695,7 +26725,7 @@
       <c r="V33" s="77"/>
       <c r="W33" s="77"/>
       <c r="X33" s="77"/>
-      <c r="Y33" s="75"/>
+      <c r="Y33" s="78"/>
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="10"/>
@@ -27047,16 +27077,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="31" width="4.6640625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" style="18" customWidth="1"/>
-    <col min="33" max="145" width="4.6640625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="12.83203125" style="17"/>
+    <col min="1" max="31" width="4.69921875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="4.69921875" style="18" customWidth="1"/>
+    <col min="33" max="145" width="4.69921875" style="17" customWidth="1"/>
+    <col min="146" max="16384" width="12.796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -27102,80 +27132,80 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="1"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="96" t="s">
+      <c r="Q3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="77"/>
       <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="77"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
       <c r="AE4" s="1"/>
     </row>
     <row r="7" spans="1:31">
@@ -27184,13 +27214,13 @@
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -27206,13 +27236,13 @@
       </c>
     </row>
     <row r="10" spans="1:31">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -27273,13 +27303,13 @@
       </c>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -27297,13 +27327,13 @@
       <c r="U18" s="34"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -27320,13 +27350,13 @@
       <c r="T19" s="33"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -27343,13 +27373,13 @@
       <c r="T20" s="33"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+      <c r="B21" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
@@ -27366,13 +27396,13 @@
       <c r="T21" s="33"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="31"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
@@ -27389,13 +27419,13 @@
       <c r="T22" s="33"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="41" t="s">
         <v>365</v>
       </c>
@@ -27424,13 +27454,13 @@
       </c>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="41" t="s">
         <v>303</v>
       </c>
@@ -27449,13 +27479,13 @@
       <c r="T27" s="33"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="41" t="s">
         <v>202</v>
       </c>
@@ -27474,13 +27504,13 @@
       <c r="T28" s="33"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="41" t="s">
         <v>205</v>
       </c>
@@ -27499,13 +27529,13 @@
       <c r="T29" s="33"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="41" t="s">
         <v>207</v>
       </c>
@@ -27547,37 +27577,37 @@
       <c r="T32" s="24"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="73"/>
-      <c r="L34" s="72" t="s">
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="75"/>
+      <c r="L34" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="73"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75"/>
       <c r="R34" s="40"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="D35" s="74"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="77"/>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="75"/>
-      <c r="L35" s="74"/>
+      <c r="I35" s="78"/>
+      <c r="L35" s="76"/>
       <c r="M35" s="77"/>
       <c r="N35" s="77"/>
       <c r="O35" s="77"/>
       <c r="P35" s="77"/>
-      <c r="Q35" s="75"/>
+      <c r="Q35" s="78"/>
     </row>
     <row r="36" spans="2:18">
       <c r="D36" s="7"/>
@@ -27673,6 +27703,16 @@
       </c>
       <c r="T55" s="17" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="R60" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24">
+      <c r="R61" s="17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="2:20">
@@ -27704,13 +27744,13 @@
       </c>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
       <c r="G74" s="31" t="s">
         <v>218</v>
       </c>
@@ -27729,13 +27769,13 @@
       <c r="T74" s="33"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
       <c r="G75" s="31" t="s">
         <v>218</v>
       </c>
@@ -27754,13 +27794,13 @@
       <c r="T75" s="33"/>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="102" t="s">
+      <c r="B76" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
       <c r="G76" s="31" t="s">
         <v>218</v>
       </c>
@@ -27779,13 +27819,13 @@
       <c r="T76" s="33"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="102" t="s">
+      <c r="B77" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
       <c r="G77" s="31" t="s">
         <v>218</v>
       </c>
@@ -27804,13 +27844,13 @@
       <c r="T77" s="33"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
       <c r="G78" s="31" t="s">
         <v>218</v>
       </c>
@@ -27829,13 +27869,13 @@
       <c r="T78" s="33"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="102" t="s">
+      <c r="B79" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
       <c r="G79" s="31" t="s">
         <v>146</v>
       </c>
@@ -27854,13 +27894,13 @@
       <c r="T79" s="33"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="102" t="s">
+      <c r="B80" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
       <c r="G80" s="31" t="s">
         <v>218</v>
       </c>
@@ -27879,13 +27919,13 @@
       <c r="T80" s="33"/>
     </row>
     <row r="81" spans="2:30">
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
       <c r="G81" s="31" t="s">
         <v>218</v>
       </c>
@@ -27904,13 +27944,13 @@
       <c r="T81" s="33"/>
     </row>
     <row r="82" spans="2:30">
-      <c r="B82" s="102" t="s">
+      <c r="B82" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
       <c r="G82" s="31" t="s">
         <v>218</v>
       </c>
@@ -27929,13 +27969,13 @@
       <c r="T82" s="33"/>
     </row>
     <row r="83" spans="2:30">
-      <c r="B83" s="102" t="s">
+      <c r="B83" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="31" t="s">
         <v>218</v>
       </c>
@@ -27954,13 +27994,13 @@
       <c r="T83" s="33"/>
     </row>
     <row r="84" spans="2:30">
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="104"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="105"/>
       <c r="G84" s="31" t="s">
         <v>218</v>
       </c>
@@ -27979,28 +28019,28 @@
       <c r="T84" s="33"/>
     </row>
     <row r="87" spans="2:30">
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="73"/>
-      <c r="K87" s="72" t="s">
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="75"/>
+      <c r="K87" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="L87" s="76"/>
-      <c r="M87" s="76"/>
-      <c r="N87" s="73"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="75"/>
     </row>
     <row r="88" spans="2:30">
-      <c r="D88" s="74"/>
+      <c r="D88" s="76"/>
       <c r="E88" s="77"/>
       <c r="F88" s="77"/>
-      <c r="G88" s="75"/>
-      <c r="K88" s="74"/>
+      <c r="G88" s="78"/>
+      <c r="K88" s="76"/>
       <c r="L88" s="77"/>
       <c r="M88" s="77"/>
-      <c r="N88" s="75"/>
+      <c r="N88" s="78"/>
     </row>
     <row r="89" spans="2:30">
       <c r="D89" s="34"/>
@@ -28330,23 +28370,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="K87:N88"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="L34:Q35"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="D34:I35"/>
     <mergeCell ref="V3:Y4"/>
     <mergeCell ref="AA3:AD4"/>
     <mergeCell ref="B23:F23"/>
@@ -28363,6 +28386,23 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="D34:I35"/>
+    <mergeCell ref="L34:Q35"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="K87:N88"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
